--- a/report/reliability/by-nivel/Mestrado.xlsx
+++ b/report/reliability/by-nivel/Mestrado.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7698249847162424</v>
+        <v>0.7500604997749521</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7973418146729012</v>
+        <v>0.7721511958202032</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9074997377419732</v>
+        <v>0.8894269162424582</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.24691314524238714</v>
+        <v>0.20677900569502297</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.934417025327441</v>
+        <v>3.3888753491587105</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.021569355389893338</v>
+        <v>0.021832862516238557</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.793160690571049</v>
+        <v>2.1605884155684953</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.770726016362155</v>
+        <v>0.6657126219216049</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.21329960843533863</v>
+        <v>0.16106712107215038</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.750706475656043</v>
+        <v>0.7545160946265919</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7705450679794398</v>
+        <v>0.7771767666515731</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8927336089899005</v>
+        <v>0.9010996770374109</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.23388481794874222</v>
+        <v>0.2251997255914513</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.358154305920064</v>
+        <v>3.4878623515722373</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.02338135553844523</v>
+        <v>0.022027148103765305</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.0491132099254352</v>
+        <v>0.06918077914363625</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.20765301940234826</v>
+        <v>0.2099769369607995</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7505684828403959</v>
+        <v>0.7369599455019873</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7739039004294272</v>
+        <v>0.7564813872367868</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8931896571754369</v>
+        <v>0.8763924322924462</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.2373238752160975</v>
+        <v>0.20563797331434894</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.4228980592735248</v>
+        <v>3.1064622890750293</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.0233416525259615</v>
+        <v>0.022988479599770607</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.04982229338977811</v>
+        <v>0.06619494927283519</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.21339955732170274</v>
+        <v>0.10642365975696086</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7517218251154592</v>
+        <v>0.7386819808690703</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7729674915162872</v>
+        <v>0.7586233588177059</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8868392187475226</v>
+        <v>0.8794656628271986</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.23635799850606692</v>
+        <v>0.20754956723074647</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.404655556504761</v>
+        <v>3.1429029549084384</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.02323329742340697</v>
+        <v>0.022804898567026003</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.04687481422611087</v>
+        <v>0.06789583994838845</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.21319965954897455</v>
+        <v>0.10813141274044039</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7500872753752453</v>
+        <v>0.7321182462506056</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7739239620454322</v>
+        <v>0.7445400110068111</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8856529245853728</v>
+        <v>0.8696961321293004</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.2373446288479691</v>
+        <v>0.1954142545436494</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.423290539977348</v>
+        <v>2.914507332209516</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.02328419451159609</v>
+        <v>0.023787796890445082</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.04647351762823596</v>
+        <v>0.05386532318395765</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.21339955732170274</v>
+        <v>0.1092414595140985</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7327899286706883</v>
+        <v>0.7014955194904018</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7757549265239692</v>
+        <v>0.7390437099608397</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8717282049500679</v>
+        <v>0.864600932022209</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.23924956459864768</v>
+        <v>0.19094175060234989</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.4594067753594953</v>
+        <v>2.8320593837762478</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.025691404944149066</v>
+        <v>0.02672291271775714</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.04952537513377363</v>
+        <v>0.05272367319136454</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.2043693441610273</v>
+        <v>0.1092414595140985</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7316141638337739</v>
+        <v>0.6987076657554309</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7745097673440587</v>
+        <v>0.7363735077007082</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8708443778171242</v>
+        <v>0.8630070954611775</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.23795176925101533</v>
+        <v>0.18881897706516879</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.434781889315024</v>
+        <v>2.7932454787765146</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.025999160916272288</v>
+        <v>0.027260772136272232</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.05000187668013391</v>
+        <v>0.053334666897520706</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.2043693441610273</v>
+        <v>0.1092414595140985</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7734189074959656</v>
+        <v>0.748483976056257</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8053988184166587</v>
+        <v>0.7787898378625482</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.887697348526227</v>
+        <v>0.8840840283353777</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.27338614668414524</v>
+        <v>0.22683341536372686</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.138714944398899</v>
+        <v>3.5205879799438757</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.020799277683271635</v>
+        <v>0.022260920972849884</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.04434250946921473</v>
+        <v>0.051373060021971416</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.2350044179063034</v>
+        <v>0.2099769369607995</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7777727670694324</v>
+        <v>0.7440186544503009</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8036030093667763</v>
+        <v>0.763703864322487</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8860820379893324</v>
+        <v>0.8716027379662025</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.27112387600493376</v>
+        <v>0.21218372565005808</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.091727713219014</v>
+        <v>3.231977798252099</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.020213828965762317</v>
+        <v>0.02131163703483095</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.04522031641181572</v>
+        <v>0.055468241198971355</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.2350044179063034</v>
+        <v>0.2099769369607995</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7613909028629229</v>
+        <v>0.7472433903073055</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7918544203566218</v>
+        <v>0.7617169338385289</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9072330894176541</v>
+        <v>0.8759447499612197</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.2569741293297301</v>
+        <v>0.21035432496794815</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.8043297470613013</v>
+        <v>3.196689324630212</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.02255288074137451</v>
+        <v>0.020781434881796297</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.05506430949528449</v>
+        <v>0.05745569022889642</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.21339955732170274</v>
+        <v>0.2099769369607995</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7545167831835421</v>
+        <v>0.7376358222034505</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7846813567198213</v>
+        <v>0.7627356953216118</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.9045356803040969</v>
+        <v>0.8869845312208404</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.2488534609171798</v>
+        <v>0.21128954875051012</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.6442796813407905</v>
+        <v>3.2147089987071618</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.023040094766263598</v>
+        <v>0.02282788720777406</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.05718813135252841</v>
+        <v>0.0668909829557205</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.21339955732170274</v>
+        <v>0.1275025938535894</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.752932673357737</v>
+        <v>0.7334303087196359</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7798573932778251</v>
+        <v>0.7596743745823951</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8917891775492087</v>
+        <v>0.8840613927374015</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.24359687742362846</v>
+        <v>0.2084965837702313</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.542510034243501</v>
+        <v>3.1610211073510666</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.023206020823188626</v>
+        <v>0.02310179953440243</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.05411843601576229</v>
+        <v>0.0677048397869809</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.20765301940234826</v>
+        <v>0.1092414595140985</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7546887616240924</v>
+        <v>0.7306351191453777</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.782915423809654</v>
+        <v>0.7525804632726626</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8936209463060563</v>
+        <v>0.8715373730505395</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.2469105981804897</v>
+        <v>0.2022187901450104</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.6064995383327973</v>
+        <v>3.0417180196324822</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.023092994512908107</v>
+        <v>0.02336666232506297</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.054313422713227276</v>
+        <v>0.0654130645376032</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.21319965954897455</v>
+        <v>0.10642365975696086</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7315019317685555</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7536959412081446</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8725125433881027</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.20318843704009856</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.0600224166223415</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.02333682797241141</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.06622423743143731</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.1092414595140985</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>251.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.5745138254687947</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.6637854292451467</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6361121614828725</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.502306760441682</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.7091633466135456</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>0.9160107516897142</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>251.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5592405593575681</v>
+        <v>0.1763847889852211</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6354603577000302</v>
+        <v>0.33677055228966335</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6069065523625172</v>
+        <v>0.21552297740619147</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.4737768510419549</v>
+        <v>0.1693047734597611</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>4.151394422310757</v>
+        <v>0.9960159362549801</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.0473719720370434</v>
+        <v>0.06311944030978031</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>251.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.552951390845772</v>
+        <v>0.46088176571308503</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6434155979849403</v>
+        <v>0.5286843903574087</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.6317676931735372</v>
+        <v>0.4831127208436323</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.4730781414819955</v>
+        <v>0.3714376889727633</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.6613545816733066</v>
+        <v>3.7091633466135456</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>0.9761457666603509</v>
+        <v>0.9160107516897142</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>251.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.5568001869580371</v>
+        <v>0.44291414473051627</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6352894247780448</v>
+        <v>0.5099303789515786</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.625566194502395</v>
+        <v>0.45531202060061354</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.4495763399097481</v>
+        <v>0.33790831236559093</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.9243027888446216</v>
+        <v>4.151394422310757</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.2830615776151164</v>
+        <v>1.0473719720370434</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>251.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.7009126742125298</v>
+        <v>0.676687841667281</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.6195998222991898</v>
+        <v>0.6289858910009305</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.6377248308229362</v>
+        <v>0.6478803252606549</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.5673820511453118</v>
+        <v>0.6435172462693522</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>1.6334661354581674</v>
+        <v>0.4581673306772908</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.937295934504743</v>
+        <v>0.4992424540125231</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>251.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.7167225232478679</v>
+        <v>0.734125608696438</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.6302888406012537</v>
+        <v>0.6728641379488086</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.6490680480447617</v>
+        <v>0.7024029398056425</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.5771593888415136</v>
+        <v>0.6007613953762888</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>1.7609561752988048</v>
+        <v>1.6334661354581674</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>2.0704177071479353</v>
+        <v>1.937295934504743</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>251.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.41670560384268673</v>
+        <v>0.7539390492069316</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.3384410468825044</v>
+        <v>0.6936899622971687</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.3183999371279703</v>
+        <v>0.7253977370974929</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.25219757091936124</v>
+        <v>0.6167331923611089</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.0836653386454183</v>
+        <v>1.7609561752988048</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.6628205289669071</v>
+        <v>2.0704177071479353</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>251.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.44135741937233103</v>
+        <v>0.29887004585747706</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.3570737633107375</v>
+        <v>0.3207429659074137</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.3391038651712976</v>
+        <v>0.29785040582483624</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.25446788676406407</v>
+        <v>0.24950109082925095</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.191235059760956</v>
+        <v>0.701195219123506</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.898231510782048</v>
+        <v>0.4586486299304205</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>251.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.48497696538460444</v>
+        <v>0.4828632259110804</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.47361517444828366</v>
+        <v>0.46446619374639786</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.3925531990112828</v>
+        <v>0.4663841166136867</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.34247881145702663</v>
+        <v>0.31508217672548444</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>2.2031872509960158</v>
+        <v>2.0836653386454183</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.537058815008981</v>
+        <v>1.6628205289669071</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>251.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5158164274330251</v>
+        <v>0.5112780138903353</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5404993510984</v>
+        <v>0.482413834698708</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.46482075730569306</v>
+        <v>0.4765402475313692</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.4049919642118566</v>
+        <v>0.3216421775563118</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.6693227091633465</v>
+        <v>2.191235059760956</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.261037326744229</v>
+        <v>1.898231510782048</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>251.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.530947912006484</v>
+        <v>0.5038387189073964</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.583794094966455</v>
+        <v>0.47323866557166666</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.5451885126552783</v>
+        <v>0.3967772044140753</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.4390296316541963</v>
+        <v>0.3533133910766551</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.8924302788844622</v>
+        <v>2.2031872509960158</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.0809174205828687</v>
+        <v>1.537058815008981</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>251.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.5123046053750594</v>
+        <v>0.505170234439557</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.5565013312170413</v>
+        <v>0.500639515013029</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.5142121434933785</v>
+        <v>0.43249744900759945</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.42072475727308817</v>
+        <v>0.3844931177683092</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.6693227091633465</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.261037326744229</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>251.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.5256766881126538</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.5622288579382854</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5284877551104609</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.42619279231621526</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.8924302788844622</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.0809174205828687</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>251.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.5176215362172796</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5527159751161945</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5163798524093214</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.419822271961404</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>2.637450199203187</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.0545292184240131</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.00398406374501992</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.035856573705179286</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.01195219123505976</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.3147410358565737</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.46215139442231074</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.17131474103585656</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.00398406374501992</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.01195219123505976</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.027888446215139442</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.2868525896414343</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.12350597609561753</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.545816733067729</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.01593625498007968</v>
+        <v>0.00398406374501992</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.03187250996015936</v>
+        <v>0.9960159362549801</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.0199203187250996</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.2908366533864542</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.4900398406374502</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.15139442231075698</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.01593625498007968</v>
+        <v>0.00398406374501992</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.0398406374501992</v>
+        <v>0.035856573705179286</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.0398406374501992</v>
+        <v>0.01195219123505976</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.3426294820717131</v>
+        <v>0.3147410358565737</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.03187250996015936</v>
+        <v>0.46215139442231074</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.5298804780876494</v>
+        <v>0.17131474103585656</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.5418326693227091</v>
+        <v>0.00398406374501992</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.04780876494023904</v>
+        <v>0.01195219123505976</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.00796812749003984</v>
+        <v>0.027888446215139442</v>
       </c>
       <c r="E47" t="n" s="112">
+        <v>0.2868525896414343</v>
+      </c>
+      <c r="F47" t="n" s="113">
         <v>0.12350597609561753</v>
       </c>
-      <c r="F47" t="n" s="113">
-        <v>0.1952191235059761</v>
-      </c>
       <c r="G47" t="n" s="114">
-        <v>0.08366533864541832</v>
+        <v>0.545816733067729</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.5418326693227091</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.01593625498007968</v>
+        <v>0.4581673306772908</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.04780876494023904</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.10358565737051793</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.11553784860557768</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.1752988047808765</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.29880478087649404</v>
+        <v>0.5418326693227091</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.12749003984063745</v>
+        <v>0.04780876494023904</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.0398406374501992</v>
+        <v>0.00796812749003984</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.29880478087649404</v>
+        <v>0.12350597609561753</v>
       </c>
       <c r="F49" t="n" s="113">
         <v>0.1952191235059761</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.0398406374501992</v>
+        <v>0.08366533864541832</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.29880478087649404</v>
+        <v>0.5418326693227091</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.1394422310756972</v>
+        <v>0.01593625498007968</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.14342629482071714</v>
+        <v>0.04780876494023904</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.0796812749003984</v>
+        <v>0.10358565737051793</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.16733067729083664</v>
+        <v>0.11553784860557768</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.17131474103585656</v>
+        <v>0.1752988047808765</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.2589641434262948</v>
+        <v>0.29880478087649404</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.09561752988047809</v>
+        <v>0.701195219123506</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.05179282868525897</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.3705179282868526</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.22310756972111553</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.12350597609561753</v>
+        <v>0.29880478087649404</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.06374501992031872</v>
+        <v>0.12749003984063745</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.0796812749003984</v>
+        <v>0.0398406374501992</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.4860557768924303</v>
+        <v>0.29880478087649404</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.24701195219123506</v>
+        <v>0.1952191235059761</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.0398406374501992</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.055776892430278883</v>
+        <v>0.29880478087649404</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.02390438247011952</v>
+        <v>0.1394422310756972</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.2350597609561753</v>
+        <v>0.14342629482071714</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.3426294820717131</v>
+        <v>0.0796812749003984</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.3426294820717131</v>
+        <v>0.16733067729083664</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.17131474103585656</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.06772908366533864</v>
+        <v>0.2589641434262948</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.0199203187250996</v>
+        <v>0.09561752988047809</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.3346613545816733</v>
+        <v>0.05179282868525897</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.36254980079681276</v>
+        <v>0.3705179282868526</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.2151394422310757</v>
+        <v>0.22310756972111553</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.12350597609561753</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.06374501992031872</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.0796812749003984</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.4860557768924303</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.24701195219123506</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.055776892430278883</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.02390438247011952</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.2350597609561753</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.3426294820717131</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.3426294820717131</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.06772908366533864</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.0199203187250996</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.3346613545816733</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.36254980079681276</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.2151394422310757</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8823449708685245</v>
+        <v>0.8673874969593772</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.887385982205162</v>
+        <v>0.9769773339876806</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8871319176808538</v>
+        <v>0.9677850087638401</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6632965229043487</v>
+        <v>0.9339722706823078</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>7.879889196581338</v>
+        <v>42.435456148514675</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.011712171795907726</v>
+        <v>0.0030138629335562856</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.8615537848605577</v>
+        <v>1.2841965471447543</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9154266634174567</v>
+        <v>1.4777679590416934</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.6702389126845555</v>
+        <v>0.9267827995653838</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.8649743357598147</v>
+        <v>0.9765984120351026</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8684236364950172</v>
+        <v>0.9777011647410501</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.8379055078944282</v>
+        <v>0.9563751136363148</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6875048582214442</v>
+        <v>0.9563751136363146</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>6.600149246883006</v>
+        <v>43.84539162639184</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.013864277480775334</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.012761162081729725</v>
-      </c>
+        <v>0.0028804926397083775</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.7050720680068869</v>
+        <v>0.9563751136363147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8553997044095559</v>
+        <v>0.5939187353340745</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.8667560424825195</v>
+        <v>0.9620002833473853</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.8318306814258446</v>
+        <v>0.9267827995653839</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6843776653475552</v>
+        <v>0.9267827995653839</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>6.505030761855059</v>
+        <v>25.315985699098473</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.015137820555672653</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.01143645731771913</v>
-      </c>
+        <v>0.009681476954639947</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.6856888318249861</v>
+        <v>0.9267827995653838</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8357505053012304</v>
+        <v>0.6149977389789008</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8452922348657336</v>
+        <v>0.9576595573296527</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7911917366037879</v>
+        <v>0.9187588988452247</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.6455492663145538</v>
+        <v>0.9187588988452249</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>5.463799662105708</v>
+        <v>22.618080892204226</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.017139489936663862</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.004178310932158724</v>
-      </c>
+        <v>0.010350583755050376</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.6547889935441249</v>
+        <v>0.9187588988452248</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8364406159252299</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8396459085780699</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.78339434835516</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.6357543017338422</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>5.236198846768181</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.01802583032416628</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.003806265178712013</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.6547889935441249</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>251.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9469185891128339</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9701054675373606</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9414948416292157</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9331257442378877</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.4581673306772908</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.4992424540125231</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>251.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8223497476967533</v>
+        <v>0.9870912242984184</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8435644066245943</v>
+        <v>0.9801941145226878</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7698321515899758</v>
+        <v>0.9693776515691488</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7090916991559956</v>
+        <v>0.9601350284779234</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.7091633466135456</v>
+        <v>1.6334661354581674</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>0.9160107516897142</v>
+        <v>1.937295934504743</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>251.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8479874987510296</v>
+        <v>0.9893047639885378</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8462772102229408</v>
+        <v>0.9829296323202132</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7784419364612352</v>
+        <v>0.9747229738233535</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.7274768387413127</v>
+        <v>0.9631447928088805</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>4.151394422310757</v>
+        <v>1.7609561752988048</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.0473719720370434</v>
+        <v>2.0704177071479353</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>251.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8772797454724058</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8799603966660468</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.8477671214988285</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.786227248840343</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.6613545816733066</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>0.9761457666603509</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>251.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.9071382191525921</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.888457414992641</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.8612131352909562</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7977390736151028</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.9243027888446216</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.2830615776151164</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.5418326693227091</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.4581673306772908</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.5418326693227091</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.04780876494023904</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.00796812749003984</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.12350597609561753</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.1952191235059761</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.08366533864541832</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.00398406374501992</v>
+        <v>0.5418326693227091</v>
       </c>
       <c r="C27" t="n" s="225">
-        <v>0.035856573705179286</v>
+        <v>0.01593625498007968</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.01195219123505976</v>
+        <v>0.04780876494023904</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.3147410358565737</v>
+        <v>0.10358565737051793</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.46215139442231074</v>
+        <v>0.11553784860557768</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.17131474103585656</v>
+        <v>0.1752988047808765</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.00398406374501992</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.01195219123505976</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.027888446215139442</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.2868525896414343</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.12350597609561753</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.545816733067729</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.01593625498007968</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.03187250996015936</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.0199203187250996</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.2908366533864542</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.4900398406374502</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.15139442231075698</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.01593625498007968</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.0398406374501992</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.0398406374501992</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.3426294820717131</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.03187250996015936</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.5298804780876494</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.9264688894440907</v>
+        <v>0.8259353119448218</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.9308168125141254</v>
+        <v>0.9296992939251886</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.870586839943574</v>
+        <v>0.906379869416255</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.8705868399435739</v>
+        <v>0.8150956890129043</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>13.45437882150447</v>
+        <v>13.224608198612346</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.00896180732916799</v>
+        <v>0.007589864978376571</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.137450199203187</v>
+        <v>1.658698539176627</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.7222171386065</v>
+        <v>1.275383441027343</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.870586839943574</v>
+        <v>0.8196411310936869</v>
       </c>
     </row>
     <row r="7">
@@ -5950,24 +5947,26 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.8705868399435739</v>
+        <v>0.9264688894440907</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.8705868399435739</v>
+        <v>0.9308168125141254</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.7579214458829381</v>
+        <v>0.870586839943574</v>
       </c>
       <c r="E11" t="n" s="291">
         <v>0.8705868399435739</v>
       </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.8705868399435739</v>
-      </c>
+      <c r="F11" t="n" s="292">
+        <v>13.45437882150447</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.00896180732916799</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
-        <v>0.8705868399435739</v>
+        <v>0.870586839943574</v>
       </c>
     </row>
     <row r="12">
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.7579214458829381</v>
+        <v>0.512731272878691</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.8705868399435739</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.7579214458829381</v>
-      </c>
+        <v>0.8604372328221903</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.7550590960014522</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.7550590960014523</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>6.165234827466213</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.019617009510226487</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.8705868399435739</v>
+        <v>0.7550590960014522</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.5917360608254887</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.9008821762575188</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.8196411310936866</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.8196411310936869</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>9.089002787209171</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.016680135198346605</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.8196411310936869</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>251.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9625371351554884</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9671056922445381</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.9023603176742958</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.870586839943574</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.0836653386454183</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.6628205289669071</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>251.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.971381919702614</v>
+        <v>0.8506831731089416</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.967105692244538</v>
+        <v>0.9165842051231137</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.9023603176742958</v>
+        <v>0.84269772657397</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.870586839943574</v>
+        <v>0.8118003836506033</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.701195219123506</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.4586486299304205</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>251.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.9647616720550808</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.9577116747354986</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.9383487195704776</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.8957470298767827</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.0836653386454183</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.6628205289669071</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>251.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9649824728820674</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.9347206978919402</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.8932492654896226</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.8727030126030128</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.191235059760956</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.898231510782048</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.29880478087649404</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.701195219123506</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.29880478087649404</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.12749003984063745</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.0398406374501992</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.29880478087649404</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.1952191235059761</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.0398406374501992</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.29880478087649404</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.1394422310756972</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.14342629482071714</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.0796812749003984</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.16733067729083664</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.17131474103585656</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.8465581170401419</v>
+        <v>0.6071610177778646</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.8467072263736779</v>
+        <v>0.6549552879187115</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.7341650322765477</v>
+        <v>0.6153947350176862</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.7341650322765476</v>
+        <v>0.38752700215447805</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>5.523464716201656</v>
+        <v>1.8981751204592052</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.019357508006319402</v>
+        <v>0.01984256968329188</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.764940239043825</v>
+        <v>2.952191235059761</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>0.9942463962289945</v>
+        <v>0.6017886869386238</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.7341650322765475</v>
+        <v>0.25660921040503687</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.7341650322765476</v>
+        <v>0.7871091410087456</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.7341650322765476</v>
+        <v>0.7913866917155863</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.5389982946176246</v>
+        <v>0.6547889935441249</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.7341650322765476</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.7341650322765476</v>
-      </c>
+        <v>0.6547889935441249</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>3.7935580343543887</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.026459940337978154</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.7341650322765476</v>
+        <v>0.6547889935441249</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.5389982946176246</v>
+        <v>0.05856400168610354</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.7341650322765476</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.5389982946176246</v>
-      </c>
+        <v>0.40151255597426094</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.2511828025142724</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.25118280251427216</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>0.6708788295932789</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.013821261073799728</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.7341650322765476</v>
+        <v>0.2511828025142721</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.06800087648820385</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.40841529455657133</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.25660921040503704</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.2566092104050368</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>0.6903750059772746</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.015607087625249393</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.25660921040503687</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>251.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9329256335752546</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9311726564597318</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.7978606792210567</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.7341650322765475</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.8924302788844622</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.0809174205828687</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>251.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.9293978828608515</v>
+        <v>0.3108832471243676</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9311726564597318</v>
+        <v>0.6533938249899716</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.7978606792210566</v>
+        <v>0.3235681936704216</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.7341650322765475</v>
+        <v>0.2787958169406931</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.637450199203187</v>
+        <v>0.9960159362549801</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.0545292184240131</v>
+        <v>0.06311944030978031</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>251.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.896225677430798</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.8282944682398583</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.7453076029392985</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.6591714407826402</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.7091633466135456</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>0.9160107516897142</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>251.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9211540441666153</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.8259429626095575</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.7413939804874334</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.6590099198024868</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>4.151394422310757</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.0473719720370434</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.055776892430278883</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.02390438247011952</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.2350597609561753</v>
-      </c>
-      <c r="E23" t="n" s="457">
-        <v>0.3426294820717131</v>
-      </c>
-      <c r="F23" t="n" s="458">
-        <v>0.3426294820717131</v>
-      </c>
-      <c r="G23" t="n" s="459">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.00398406374501992</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.9960159362549801</v>
+      </c>
+      <c r="D25" t="n" s="456">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.06772908366533864</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.0199203187250996</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.3346613545816733</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.36254980079681276</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.2151394422310757</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.00398406374501992</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.035856573705179286</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.01195219123505976</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.3147410358565737</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.46215139442231074</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.17131474103585656</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.00398406374501992</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.01195219123505976</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.027888446215139442</v>
+      </c>
+      <c r="E27" t="n" s="457">
+        <v>0.2868525896414343</v>
+      </c>
+      <c r="F27" t="n" s="458">
+        <v>0.12350597609561753</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.545816733067729</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9765984120351026</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9777011647410501</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9563751136363148</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9563751136363146</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>43.84539162639184</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.0028804926397083775</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>1.697211155378486</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.98190620142202</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9563751136363147</v>
+      <c r="A6" t="n" s="491">
+        <v>0.6840963229013586</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.6928832897922597</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.53008525128727</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.53008525128727</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>2.2560911430823114</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.038822130704143726</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>2.4362549800796813</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.2255285874777053</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.5300852512872699</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9563751136363147</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9563751136363147</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9146533579828741</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9563751136363147</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9563751136363147</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9563751136363147</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.53008525128727</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.53008525128727</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.2809903736322883</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.53008525128727</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.53008525128727</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.53008525128727</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9146533579828741</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9563751136363147</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9146533579828741</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9563751136363147</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.2809903736322883</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.53008525128727</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.2809903736322883</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.53008525128727</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>251.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.988288926499714</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.989033647970663</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9672198487467026</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9563751136363147</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>1.6334661354581674</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.937295934504743</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8998223810421497</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8746671513459475</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.6368185082578702</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.5300852512872698</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>2.2031872509960158</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.537058815008981</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>251.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9897540367556698</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.989033647970663</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9672198487467025</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9563751136363148</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>1.7609561752988048</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>2.0704177071479353</v>
+      <c r="C18" t="n" s="545">
+        <v>0.846903758978752</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8746671513459476</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.6368185082578702</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.5300852512872699</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.6693227091633465</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.261037326744229</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.5418326693227091</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.04780876494023904</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.00796812749003984</v>
-      </c>
-      <c r="E23" t="n" s="571">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.2589641434262948</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.09561752988047809</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.05179282868525897</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.3705179282868526</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.22310756972111553</v>
+      </c>
+      <c r="G23" t="n" s="574">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
         <v>0.12350597609561753</v>
       </c>
-      <c r="F23" t="n" s="572">
-        <v>0.1952191235059761</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.08366533864541832</v>
-      </c>
-      <c r="H23" t="n" s="574">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.5418326693227091</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.01593625498007968</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.04780876494023904</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.10358565737051793</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.11553784860557768</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.1752988047808765</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="C24" t="n" s="570">
+        <v>0.06374501992031872</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.0796812749003984</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.4860557768924303</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.24701195219123506</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.6840963229013586</v>
+        <v>0.8465581170401419</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.6928832897922597</v>
+        <v>0.8467072263736779</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.53008525128727</v>
+        <v>0.7341650322765477</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.53008525128727</v>
+        <v>0.7341650322765476</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>2.2560911430823114</v>
+        <v>5.523464716201656</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.038822130704143726</v>
+        <v>0.019357508006319402</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>2.4362549800796813</v>
+        <v>2.764940239043825</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.2255285874777053</v>
+        <v>0.9942463962289945</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.5300852512872699</v>
+        <v>0.7341650322765475</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.53008525128727</v>
+        <v>0.7341650322765476</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.53008525128727</v>
+        <v>0.7341650322765476</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.2809903736322883</v>
+        <v>0.5389982946176246</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.53008525128727</v>
+        <v>0.7341650322765476</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.53008525128727</v>
+        <v>0.7341650322765476</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.53008525128727</v>
+        <v>0.7341650322765476</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.2809903736322883</v>
+        <v>0.5389982946176246</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.53008525128727</v>
+        <v>0.7341650322765476</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.2809903736322883</v>
+        <v>0.5389982946176246</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.53008525128727</v>
+        <v>0.7341650322765476</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>251.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8998223810421497</v>
+        <v>0.9329256335752546</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8746671513459475</v>
+        <v>0.9311726564597318</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.6368185082578702</v>
+        <v>0.7978606792210567</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.5300852512872698</v>
+        <v>0.7341650322765475</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>2.2031872509960158</v>
+        <v>2.8924302788844622</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.537058815008981</v>
+        <v>1.0809174205828687</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>251.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.846903758978752</v>
+        <v>0.9293978828608515</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8746671513459476</v>
+        <v>0.9311726564597318</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.6368185082578702</v>
+        <v>0.7978606792210566</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.5300852512872699</v>
+        <v>0.7341650322765475</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.6693227091633465</v>
+        <v>2.637450199203187</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.261037326744229</v>
+        <v>1.0545292184240131</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.2589641434262948</v>
+        <v>0.055776892430278883</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.09561752988047809</v>
+        <v>0.02390438247011952</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.05179282868525897</v>
+        <v>0.2350597609561753</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.3705179282868526</v>
+        <v>0.3426294820717131</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.22310756972111553</v>
+        <v>0.3426294820717131</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.12350597609561753</v>
+        <v>0.06772908366533864</v>
       </c>
       <c r="C24" t="n" s="684">
-        <v>0.06374501992031872</v>
+        <v>0.0199203187250996</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.0796812749003984</v>
+        <v>0.3346613545816733</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.4860557768924303</v>
+        <v>0.36254980079681276</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.24701195219123506</v>
+        <v>0.2151394422310757</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.8086320710083315</v>
+        <v>0.7871841049727651</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8265372907837891</v>
+        <v>0.803260635339598</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.9055076641930512</v>
+        <v>0.8768459536939244</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.3227193444854526</v>
+        <v>0.2899173096313226</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>4.764927830993113</v>
+        <v>4.08286687682524</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.017629393979828562</v>
+        <v>0.017249686647906694</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.9243027888446216</v>
+        <v>2.3111553784860557</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.8311961332634983</v>
+        <v>0.7514486408005249</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.25230390352697984</v>
+        <v>0.2511828025142721</v>
       </c>
     </row>
     <row r="7">
@@ -7421,115 +7592,115 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7891658927173932</v>
+        <v>0.7673284978562233</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.8003327931221097</v>
+        <v>0.7715501665884467</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8880341111838684</v>
+        <v>0.8476963057823249</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.30813582961549335</v>
+        <v>0.27286410038071146</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>4.008333695034691</v>
+        <v>3.3773286461474274</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.019334261557849574</v>
+        <v>0.019537720321655582</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.04056432699075808</v>
+        <v>0.03473529530547101</v>
       </c>
       <c r="I11" t="n" s="753">
-        <v>0.24991000699568328</v>
+        <v>0.25445655696600833</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7926706416331669</v>
+        <v>0.7299750661102515</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.8074138620168092</v>
+        <v>0.7642392250595799</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8895475883576542</v>
+        <v>0.8409727948244103</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.317793255691289</v>
+        <v>0.2648012471650343</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>4.192481714791339</v>
+        <v>3.241587686724874</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.01893916469455015</v>
+        <v>0.02304234064331263</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.038332408172755135</v>
+        <v>0.03393536097601621</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.261886281686746</v>
+        <v>0.24498729607149905</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7909953723086838</v>
+        <v>0.7342290468504922</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.8036034080021455</v>
+        <v>0.7642092254660833</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.8807184929053281</v>
+        <v>0.8401315982387947</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.31254353188953155</v>
+        <v>0.26476883536355583</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>4.091738048137436</v>
+        <v>3.241048030724193</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.01906106803929234</v>
+        <v>0.02285611045669231</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.036117228515357966</v>
+        <v>0.03365892386023095</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.261886281686746</v>
+        <v>0.24037077442276983</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7910715171661044</v>
+        <v>0.796236310099174</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.8055042325395619</v>
+        <v>0.8187413939344875</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8797788746025799</v>
+        <v>0.8926555479815365</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.3151466758629692</v>
+        <v>0.33417077011027263</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>4.141500059652495</v>
+        <v>4.516979423523586</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.018843251251318926</v>
+        <v>0.017486001847354608</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.034591152413988344</v>
+        <v>0.048804195756941615</v>
       </c>
       <c r="I14" t="n" s="753">
         <v>0.261886281686746</v>
@@ -7537,176 +7708,176 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7941924679434389</v>
+        <v>0.7729825551407692</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.8127146946834857</v>
+        <v>0.7854363388586026</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8871690606785507</v>
+        <v>0.8576777105628675</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.32530937289050665</v>
+        <v>0.2891344204126792</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>4.33944720494749</v>
+        <v>3.6606214429805073</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.018915820042347337</v>
+        <v>0.018138316557079686</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.044494760687871546</v>
+        <v>0.055868409815575004</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.2510121350179816</v>
+        <v>0.24498729607149905</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.797391153840102</v>
+        <v>0.7803742088808683</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.8172958784499837</v>
+        <v>0.7940535179755842</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.8897107684589913</v>
+        <v>0.8633099230659727</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.3320137029417136</v>
+        <v>0.29991764571658236</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>4.473330275837512</v>
+        <v>3.855630405385832</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.018729611835115515</v>
+        <v>0.017494614987629022</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.04301049966936028</v>
+        <v>0.05413822414043677</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.2518414189726008</v>
+        <v>0.25943140100452433</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7756925427173732</v>
+        <v>0.7746538065963122</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.8084897999942738</v>
+        <v>0.7933019504577348</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8639760702595891</v>
+        <v>0.8703227130067013</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.31929847757657065</v>
+        <v>0.29895485952980094</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>4.221653990075203</v>
+        <v>3.8379750182186503</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.02141289584628302</v>
+        <v>0.01766611146279565</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.038129986062415265</v>
+        <v>0.05570877544087407</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.2514746195723606</v>
+        <v>0.24498729607149905</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7796650422739612</v>
+        <v>0.7725580644316624</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.8085731001128208</v>
+        <v>0.791782466277334</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.8637776673044985</v>
+        <v>0.8690272894842072</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.3194154401858354</v>
+        <v>0.29702160981432907</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>4.223926211986757</v>
+        <v>3.8026695068434697</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.02115056423341048</v>
+        <v>0.0176532081380929</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.038142026898497744</v>
+        <v>0.05649859487779745</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.2518414189726008</v>
+        <v>0.2538960064596545</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.8040565065993754</v>
+        <v>0.7672944727793677</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8246356459658887</v>
+        <v>0.7829901678006852</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.9049332069908739</v>
+        <v>0.8508696662694337</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.3431813874093387</v>
+        <v>0.2861723896816138</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>4.702413158637038</v>
+        <v>3.608086139993603</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.018168904063577622</v>
+        <v>0.01821238788665147</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.044065487397369034</v>
+        <v>0.05351690042209211</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.2518414189726008</v>
+        <v>0.24498729607149905</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.7978769528884582</v>
+        <v>0.7704473710557983</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.8188647363507329</v>
+        <v>0.7872572722495813</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9025348314151866</v>
+        <v>0.853715140512992</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.3343557707912773</v>
+        <v>0.2913672181386464</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>4.520736160664462</v>
+        <v>3.700513200024213</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.018539002384013785</v>
+        <v>0.018100727329976897</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.047259284815210516</v>
+        <v>0.05281013406473105</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.261886281686746</v>
+        <v>0.25017874044394867</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>251.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6392254553690303</v>
+        <v>0.7625340925145805</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.7088780587530306</v>
+        <v>0.7029587949612909</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.6788285753624882</v>
+        <v>0.7288111225412149</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5667621081630002</v>
+        <v>0.7324930426489004</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.7091633466135456</v>
+        <v>0.4581673306772908</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>0.9160107516897142</v>
+        <v>0.4992424540125231</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>251.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.5875519202753711</v>
+        <v>0.8251978336219459</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6532386354346044</v>
+        <v>0.7512738438781851</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6212988061696153</v>
+        <v>0.7889347517499994</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.4954524366805093</v>
+        <v>0.7086949372942948</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>4.151394422310757</v>
+        <v>1.6334661354581674</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.0473719720370434</v>
+        <v>1.937295934504743</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>251.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.6101578940718155</v>
+        <v>0.8259846423827852</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.6834839205259259</v>
+        <v>0.7514680651708252</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6715123752704567</v>
+        <v>0.7903591388963235</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.5281049125927735</v>
+        <v>0.6986600399055503</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.6613545816733066</v>
+        <v>1.7609561752988048</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>0.9761457666603509</v>
+        <v>2.0704177071479353</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>251.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6055899239320099</v>
+        <v>0.16117346614318592</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.668486401688074</v>
+        <v>0.33559073458827826</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6582039724749618</v>
+        <v>0.1960226122899787</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.4932495435442242</v>
+        <v>0.15297560126325802</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.9243027888446216</v>
+        <v>0.9960159362549801</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.2830615776151164</v>
+        <v>0.06311944030978031</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>251.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.5714532784472328</v>
+        <v>0.535868947720371</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6099359558928699</v>
+        <v>0.6054621288047527</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.5683795662622888</v>
+        <v>0.5559879996742244</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.4737083437839053</v>
+        <v>0.4402399635676113</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.8924302788844622</v>
+        <v>3.7091633466135456</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.0809174205828687</v>
+        <v>0.9160107516897142</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>251.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.5380891338113325</v>
+        <v>0.4704988873484972</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.5713102335877867</v>
+        <v>0.5408457896374999</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.5253093653440778</v>
+        <v>0.4799313990682467</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.4384713521287165</v>
+        <v>0.3513264876164886</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>2.637450199203187</v>
+        <v>4.151394422310757</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.0545292184240131</v>
+        <v>1.0473719720370434</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>251.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.7562341973513674</v>
+        <v>0.5867637429587336</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.6445665858630065</v>
+        <v>0.546615094927643</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.6634872735169719</v>
+        <v>0.46465442612610824</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.6244913070364528</v>
+        <v>0.42685274865274087</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>1.6334661354581674</v>
+        <v>2.2031872509960158</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.937295934504743</v>
+        <v>1.537058815008981</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>251.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.7574031630595611</v>
+        <v>0.5585699797373324</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.6438927280381332</v>
+        <v>0.5581997104567935</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.6628178628043873</v>
+        <v>0.4793000413840478</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.6142915568897149</v>
+        <v>0.42617461968002357</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>1.7609561752988048</v>
+        <v>2.6693227091633465</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>2.0704177071479353</v>
+        <v>1.261037326744229</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>251.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5402658627266316</v>
+        <v>0.5870144363874863</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.5069697438233226</v>
+        <v>0.6232115105479937</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.4203546123817167</v>
+        <v>0.5887584225781268</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.3890156306481808</v>
+        <v>0.4801732996037528</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>2.2031872509960158</v>
+        <v>2.8924302788844622</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.537058815008981</v>
+        <v>1.0809174205828687</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>251.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.5469235729476065</v>
+        <v>0.5598773523131393</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.5578168551762298</v>
+        <v>0.5920825312273243</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.4758409089603376</v>
+        <v>0.5528612357501026</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.4268948429996625</v>
+        <v>0.4517359557391336</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.6693227091633465</v>
+        <v>2.637450199203187</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.261037326744229</v>
+        <v>1.0545292184240131</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.00398406374501992</v>
+        <v>0.5418326693227091</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.035856573705179286</v>
+        <v>0.4581673306772908</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.01195219123505976</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.3147410358565737</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.46215139442231074</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.17131474103585656</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.00398406374501992</v>
+        <v>0.5418326693227091</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.01195219123505976</v>
+        <v>0.04780876494023904</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.027888446215139442</v>
+        <v>0.00796812749003984</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.2868525896414343</v>
+        <v>0.12350597609561753</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.12350597609561753</v>
+        <v>0.1952191235059761</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.545816733067729</v>
+        <v>0.08366533864541832</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
+        <v>0.5418326693227091</v>
+      </c>
+      <c r="C41" t="n" s="798">
         <v>0.01593625498007968</v>
       </c>
-      <c r="C41" t="n" s="798">
-        <v>0.03187250996015936</v>
-      </c>
       <c r="D41" t="n" s="799">
-        <v>0.0199203187250996</v>
+        <v>0.04780876494023904</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.2908366533864542</v>
+        <v>0.10358565737051793</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.4900398406374502</v>
+        <v>0.11553784860557768</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.15139442231075698</v>
+        <v>0.1752988047808765</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.01593625498007968</v>
+        <v>0.00398406374501992</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.0398406374501992</v>
+        <v>0.9960159362549801</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.0398406374501992</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.3426294820717131</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.03187250996015936</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.5298804780876494</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.055776892430278883</v>
+        <v>0.00398406374501992</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.02390438247011952</v>
+        <v>0.035856573705179286</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.2350597609561753</v>
+        <v>0.01195219123505976</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.3426294820717131</v>
+        <v>0.3147410358565737</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.3426294820717131</v>
+        <v>0.46215139442231074</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.17131474103585656</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.06772908366533864</v>
+        <v>0.00398406374501992</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.0199203187250996</v>
+        <v>0.01195219123505976</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.3346613545816733</v>
+        <v>0.027888446215139442</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.36254980079681276</v>
+        <v>0.2868525896414343</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.2151394422310757</v>
+        <v>0.12350597609561753</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.545816733067729</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.5418326693227091</v>
+        <v>0.2589641434262948</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.04780876494023904</v>
+        <v>0.09561752988047809</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.00796812749003984</v>
+        <v>0.05179282868525897</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.12350597609561753</v>
+        <v>0.3705179282868526</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.1952191235059761</v>
+        <v>0.22310756972111553</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.08366533864541832</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.5418326693227091</v>
+        <v>0.12350597609561753</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.01593625498007968</v>
+        <v>0.06374501992031872</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.04780876494023904</v>
+        <v>0.0796812749003984</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.10358565737051793</v>
+        <v>0.4860557768924303</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.11553784860557768</v>
+        <v>0.24701195219123506</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.1752988047808765</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.2589641434262948</v>
+        <v>0.055776892430278883</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.09561752988047809</v>
+        <v>0.02390438247011952</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.05179282868525897</v>
+        <v>0.2350597609561753</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.3705179282868526</v>
+        <v>0.3426294820717131</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.22310756972111553</v>
+        <v>0.3426294820717131</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.12350597609561753</v>
+        <v>0.06772908366533864</v>
       </c>
       <c r="C48" t="n" s="798">
-        <v>0.06374501992031872</v>
+        <v>0.0199203187250996</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.0796812749003984</v>
+        <v>0.3346613545816733</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.4860557768924303</v>
+        <v>0.36254980079681276</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.24701195219123506</v>
+        <v>0.2151394422310757</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
